--- a/product-definitions/spreadsheet/solar-actinic-flux.xlsx
+++ b/product-definitions/spreadsheet/solar-actinic-flux.xlsx
@@ -12,14 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,12 +35,6 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
@@ -65,7 +65,7 @@
     <t>long_name</t>
   </si>
   <si>
-    <t>Solar Actinic Flux</t>
+    <t>Solar Actinic Flux (280–420 nm)</t>
   </si>
   <si>
     <t>_FillValue</t>
@@ -83,18 +83,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -103,24 +92,31 @@
     <t>latitude longitude</t>
   </si>
   <si>
-    <t>photolysis_frquencies</t>
+    <t>photolysis_frequencies_jno2</t>
   </si>
   <si>
     <t>s-1</t>
   </si>
   <si>
-    <t>Photolysis Frquencies (j(NO2))</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
+    <t>Photolysis Frequencies (j(NO(2))</t>
+  </si>
+  <si>
+    <t>photolysis_frequencies_jo1d</t>
+  </si>
+  <si>
+    <t>Photolysis Frequencies (j(O(1))(D))</t>
+  </si>
+  <si>
+    <t>photolysis_frequencies_jhcho</t>
+  </si>
+  <si>
+    <t>Photolysis Frequencies (j(HCHO))</t>
+  </si>
+  <si>
+    <t>photolysis_frequencies_jhono</t>
+  </si>
+  <si>
+    <t>Photolysis Frequencies (j(HONO))</t>
   </si>
   <si>
     <t>qc_flag</t>
@@ -164,12 +160,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
@@ -184,12 +180,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,39 +203,39 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -253,6 +255,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
@@ -297,155 +305,155 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -473,72 +481,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -546,8 +554,8 @@
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="13">
@@ -555,8 +563,8 @@
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -564,8 +572,8 @@
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -573,89 +581,88 @@
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="13">
@@ -663,8 +670,8 @@
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -672,8 +679,8 @@
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -681,105 +688,435 @@
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="4"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="13">
+        <v>-1.0E20</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" ht="12.0" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="12.0" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="12.0" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" ht="12.0" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="C36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="37" ht="12.0" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="13">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="18">
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="13">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="20">
         <v>1.0</v>
       </c>
     </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
+    <row r="66">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="C67" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+    <row r="68">
+      <c r="A68" s="2"/>
+      <c r="B68" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2"/>
+      <c r="B69" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
